--- a/doc/список функций.xlsx
+++ b/doc/список функций.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay_Core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58404BB7-D795-46CD-926E-1B34C13991BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8C41F-0933-4D1C-A571-E4119847E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1736,9 @@
       <c r="B38" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>138</v>
       </c>
@@ -3273,7 +3275,7 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B107" s="5"/>

--- a/doc/список функций.xlsx
+++ b/doc/список функций.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay_Core\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\Work\IDS_RailWay_Core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB8C41F-0933-4D1C-A571-E4119847E794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85BBE1-2485-41E4-84AC-F26825BA6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -484,6 +484,85 @@
   </si>
   <si>
     <t>Получить полную информацию по вагонам принятого состава (main_wagon_addressing.js, table_incoming_cars, table_td_report, view_incoming_cars, view_incoming_report)</t>
+  </si>
+  <si>
+    <t>Получить все вагоны состава для отправки по id состава (View) view_outgoing_cars, table_outgoing_cars, table_td_report</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewOutgoingCarsOfIDSostav</t>
+  </si>
+  <si>
+    <t>getViewOutgoingCarsOfIDCar; getViewPreviousOutgoingCarsOfIDWIR (Получить информацию по отправленному вагону предыдущего прибытия вагона на АМКР(по id_wir текущего прибытия))</t>
+  </si>
+  <si>
+    <t>form_incoming_cars_detali (Найти документы по возврату). form_outgoing_cars_detali (Обновить информацию по вагону), table_td_report (Получить предыдущие отправки с АМКР)</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewOutgoingCarsOfNum</t>
+  </si>
+  <si>
+    <t>main_usage_fee.js (Показать вагоны в отправках)</t>
+  </si>
+  <si>
+    <t>ids_wsd.getReportViewRemainderWagonsOfDate</t>
+  </si>
+  <si>
+    <t>Получить оперативный остаток на определенную дату(Новый Отчет остаток вагонов (общий)). view_td_report</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewRemainderWagons</t>
+  </si>
+  <si>
+    <t>ОТЧЕТ "ОПЕРАТИВНЫЙ ОСТАТОК ВАГОНОВ НА АМКР". view_rep_operating_balance_rw_cars</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewWagonsOfBalance</t>
+  </si>
+  <si>
+    <t>ОТЧЕТ "ОПЕРАТИВНЫЙ ОСТАТОК ВАГОНОВ НА АМКР".
+Показать вагоны детально отчет учетный остаток на АМКР. view_report_remainder_cars</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewWagonsOfIdWay</t>
+  </si>
+  <si>
+    <t>Загрузить вагоны на выбраном пути. 
+main_wsd, view_op_arrival_cars, view_op_outgoing_cars, view_op_return_cars, view_op_common_filing, view_op_common_group, view_op_dislocation_cars, view_op_dissolution_cars, view_op_provide_cars, print_ws</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewWagonsOfWay</t>
+  </si>
+  <si>
+    <t>АРМ, Получить список вагонов на пути станции.
+Wsd, table_cars_way, view_arrival_cars, view_return_cars, view_send_cars</t>
+  </si>
+  <si>
+    <t>ids_wsd.postViewWagonsOfListNums</t>
+  </si>
+  <si>
+    <t>ОПЕРАЦИЯ С ГРУППОЙ ВАГОНОВ. view_op_common_group</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ids_inc.getViewWagonsOfWay</t>
+  </si>
+  <si>
+    <t>Старая выборка вагоны на пути. Wsd.js</t>
+  </si>
+  <si>
+    <t>WSD/view/wagon/outgoing/sostav/id/</t>
+  </si>
+  <si>
+    <t>ids_wsd.getViewWagonsOutgoingSostavOfIdSostav</t>
+  </si>
+  <si>
+    <t>Получить вагоны по отправленному составу по id составу. 
+view_op_provide_cars, view_op_sending_uz</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -509,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +598,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,9 +661,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -582,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +725,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -728,7 +831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -870,7 +973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +997,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="83" customWidth="1"/>
   </cols>
@@ -953,13 +1056,19 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E3" s="2">
         <v>23007163</v>
       </c>
@@ -972,7 +1081,9 @@
       <c r="H3" s="3">
         <v>45054.504872685182</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1349,13 +1460,19 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E21" s="2">
         <v>305436162</v>
       </c>
@@ -1368,16 +1485,24 @@
       <c r="H21" s="3">
         <v>44504.362199074072</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E22" s="2">
         <v>316580216</v>
       </c>
@@ -1390,7 +1515,9 @@
       <c r="H22" s="3">
         <v>45729.463171296295</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1438,10 +1565,12 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="2">
@@ -2451,13 +2580,19 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+      <c r="B70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E70" s="2">
         <v>1009438670</v>
       </c>
@@ -2470,7 +2605,9 @@
       <c r="H70" s="3">
         <v>44558.48642361111</v>
       </c>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2521,7 +2658,9 @@
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="5"/>
+      <c r="B73" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="2">
@@ -2605,13 +2744,19 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
+      <c r="B77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E77" s="2">
         <v>1276583636</v>
       </c>
@@ -2624,7 +2769,9 @@
       <c r="H77" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2781,13 +2928,19 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="B85" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E85" s="2">
         <v>1404584092</v>
       </c>
@@ -2801,7 +2954,9 @@
         <v>45821.376261574071</v>
       </c>
       <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -3208,13 +3363,17 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E104" s="2">
         <v>1699537138</v>
       </c>
@@ -3228,15 +3387,26 @@
         <v>45518.517858796295</v>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K104" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="B105" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="E105" s="2">
         <v>1704393141</v>
       </c>
@@ -3249,16 +3419,24 @@
       <c r="H105" s="3">
         <v>44286.657557870371</v>
       </c>
-      <c r="I105" s="2"/>
+      <c r="I105" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
+      <c r="B106" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E106" s="2">
         <v>1713441178</v>
       </c>
@@ -3271,7 +3449,9 @@
       <c r="H106" s="3">
         <v>44599.41207175926</v>
       </c>
-      <c r="I106" s="2"/>
+      <c r="I106" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,13 +3542,19 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
+      <c r="B111" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E111" s="2">
         <v>1844917644</v>
       </c>
@@ -3382,7 +3568,9 @@
         <v>44452.356435185182</v>
       </c>
       <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -3494,13 +3682,19 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="B117" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E117" s="2">
         <v>2128062667</v>
       </c>
@@ -3514,10 +3708,13 @@
         <v>45721.451504629629</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/список функций.xlsx
+++ b/doc/список функций.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2022\Project\Work\IDS_RailWay_Core\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay_Core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85BBE1-2485-41E4-84AC-F26825BA6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595350A-5626-40ED-A036-7E68D72FD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +725,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -831,7 +831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,9 +2658,7 @@
       <c r="A73" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="2">

--- a/doc/список функций.xlsx
+++ b/doc/список функций.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay_Core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595350A-5626-40ED-A036-7E68D72FD9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1960C35-3BB4-42FD-9476-4E15E394666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Получить описание дополнительных условий ставки периода</t>
   </si>
 </sst>
 </file>
@@ -983,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,13 +2635,19 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="B72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="E72" s="2">
         <v>1027534744</v>
       </c>
